--- a/medicine/Psychotrope/Milla_(film,_2019)/Milla_(film,_2019).xlsx
+++ b/medicine/Psychotrope/Milla_(film,_2019)/Milla_(film,_2019).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Milla (Babyteeth) est une comédie dramatique australienne réalisée par Shannon Murphy, sortie en 2019. Elle est présentée à la Mostra de Venise 2019.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Babyteeth
@@ -561,7 +577,7 @@
 Dates de sortie :
 Italie : 4 septembre 2019 (Mostra de Venise 2019)
 Australie : 23 juillet 2020
-France : 9 septembre 2020 (L'Étrange Festival)[1] ; 28 juillet 2021 (sortie nationale)</t>
+France : 9 septembre 2020 (L'Étrange Festival) ; 28 juillet 2021 (sortie nationale)</t>
         </is>
       </c>
     </row>
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eliza Scanlen : Milla Finlay
 Essie Davis : Anna Finlay
@@ -637,8 +655,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Accueil critique
-En France, le site Allociné recense une moyenne des critiques presse de 3,6/5[2].
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, le site Allociné recense une moyenne des critiques presse de 3,6/5.
 </t>
         </is>
       </c>
@@ -669,11 +692,50 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Récompenses
-Mostra de Venise 2019 : Prix Marcello-Mastroianni du meilleur espoir pour Toby Wallace
-Festival international du film de Transylvanie 2020 : Trophée Transilvania du meilleur film et prix du public [3]
-Sélection
-Festival international du film de Thessalonique 2019 : hors compétition</t>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mostra de Venise 2019 : Prix Marcello-Mastroianni du meilleur espoir pour Toby Wallace
+Festival international du film de Transylvanie 2020 : Trophée Transilvania du meilleur film et prix du public </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Milla_(film,_2019)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Milla_(film,_2019)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sélection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Festival international du film de Thessalonique 2019 : hors compétition</t>
         </is>
       </c>
     </row>
